--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED140D97-A36C-43F9-829B-513297A13327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE2D6E6-1437-4DBC-BBC2-1BEA02275B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Type" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -121,13 +121,19 @@
     <t>Machine Movement</t>
   </si>
   <si>
-    <t>Machine movement is very fineky (idk how its spelled)</t>
-  </si>
-  <si>
     <t>Part Tooltip</t>
   </si>
   <si>
     <t>A tooltip that tells you the details of a part</t>
+  </si>
+  <si>
+    <t>Machine movement is very finiky (idk how its spelled)</t>
+  </si>
+  <si>
+    <t>A small menu that pops up when the player wins/loses</t>
+  </si>
+  <si>
+    <t>End Level Menu</t>
   </si>
 </sst>
 </file>
@@ -172,11 +178,11 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -192,11 +198,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -212,31 +238,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -252,12 +259,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -584,206 +590,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -793,8 +816,34 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{5CFBD5D1-456F-4D7F-9982-181259B8195C}">
+            <xm:f>Data!$A$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{97AC1836-A458-4617-852D-D89842CA1683}">
+            <xm:f>Data!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1A33FEAE-45E8-470F-808F-C4EF9E411CAB}">
-            <xm:f>Type!$A$2</xm:f>
+            <xm:f>Data!$A$2</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -807,8 +856,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{97AC1836-A458-4617-852D-D89842CA1683}">
-            <xm:f>Type!$A$3</xm:f>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{CC93066F-EA3B-4C08-81A5-CC57720EF37F}">
+            <xm:f>Data!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EF0A304A-4DB5-4CBB-ABB9-DF201EFA873E}">
+            <xm:f>Data!$B$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C5700"/>
@@ -820,8 +885,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{5CFBD5D1-456F-4D7F-9982-181259B8195C}">
-            <xm:f>Type!$A$4</xm:f>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{573EBE50-2972-4F8D-BD50-9F3BFD08D89E}">
+            <xm:f>Data!$B$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{37E5DF0B-A8B3-4DBD-85A4-FC361F29520F}">
+            <xm:f>Data!$C$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF006100"/>
@@ -833,11 +914,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A1:A1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{573EBE50-2972-4F8D-BD50-9F3BFD08D89E}">
-            <xm:f>Type!$B$2</xm:f>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{734FE2A3-AB7A-48DB-9B4A-136DA43AF9C5}">
+            <xm:f>Data!$C$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CD6A1B48-41A1-45EF-94E3-60061C54091E}">
+            <xm:f>Data!$C$2</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -849,75 +940,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EF0A304A-4DB5-4CBB-ABB9-DF201EFA873E}">
-            <xm:f>Type!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{CC93066F-EA3B-4C08-81A5-CC57720EF37F}">
-            <xm:f>Type!$B$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CD6A1B48-41A1-45EF-94E3-60061C54091E}">
-            <xm:f>Type!$C$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{734FE2A3-AB7A-48DB-9B4A-136DA43AF9C5}">
-            <xm:f>Type!$C$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{37E5DF0B-A8B3-4DBD-85A4-FC361F29520F}">
-            <xm:f>Type!$C$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -925,21 +948,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B03FE32-CB28-4F15-AAF6-85D8325E158B}">
           <x14:formula1>
-            <xm:f>Type!$B$2:$B$4</xm:f>
+            <xm:f>Data!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2459212-EC8B-4659-B0D5-698531ACD603}">
           <x14:formula1>
-            <xm:f>Type!$C$2:$C$4</xm:f>
+            <xm:f>Data!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{565E2FE6-1B3A-4D4D-B1E8-5E809131E21C}">
           <x14:formula1>
-            <xm:f>Type!$A$2:$A$4</xm:f>
+            <xm:f>Data!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE2D6E6-1437-4DBC-BBC2-1BEA02275B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280523A-4402-45A0-8A0E-A6DEF1A1EA57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -121,12 +121,6 @@
     <t>Machine Movement</t>
   </si>
   <si>
-    <t>Part Tooltip</t>
-  </si>
-  <si>
-    <t>A tooltip that tells you the details of a part</t>
-  </si>
-  <si>
     <t>Machine movement is very finiky (idk how its spelled)</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>End Level Menu</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>A screen which tells you details of parts, skins you have and etc…</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,12 +772,12 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -786,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2280523A-4402-45A0-8A0E-A6DEF1A1EA57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C7E6B-6C8A-4944-AD2F-C883E319D6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>A screen which tells you details of parts, skins you have and etc…</t>
+  </si>
+  <si>
+    <t>Touch Movement</t>
+  </si>
+  <si>
+    <t>Buttons to use for moving machine</t>
+  </si>
+  <si>
+    <t>WinArea Texture</t>
+  </si>
+  <si>
+    <t>Show Part Info</t>
+  </si>
+  <si>
+    <t>Double click on a part (or press a key) to show it in the collection</t>
   </si>
 </sst>
 </file>
@@ -590,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -763,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -807,6 +822,54 @@
       </c>
       <c r="E12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C7E6B-6C8A-4944-AD2F-C883E319D6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D6C5B-B36B-486E-9385-DEA23F9BCFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -73,12 +73,6 @@
     <t>When a part goes over a connector when held, it cant connect to anything until re-selected</t>
   </si>
   <si>
-    <t>Localization</t>
-  </si>
-  <si>
-    <t>Needs csv files</t>
-  </si>
-  <si>
     <t>Parts Area</t>
   </si>
   <si>
@@ -118,37 +112,13 @@
     <t>Killer Connector</t>
   </si>
   <si>
-    <t>Machine Movement</t>
-  </si>
-  <si>
-    <t>Machine movement is very finiky (idk how its spelled)</t>
-  </si>
-  <si>
     <t>A small menu that pops up when the player wins/loses</t>
   </si>
   <si>
     <t>End Level Menu</t>
   </si>
   <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>A screen which tells you details of parts, skins you have and etc…</t>
-  </si>
-  <si>
-    <t>Touch Movement</t>
-  </si>
-  <si>
-    <t>Buttons to use for moving machine</t>
-  </si>
-  <si>
     <t>WinArea Texture</t>
-  </si>
-  <si>
-    <t>Show Part Info</t>
-  </si>
-  <si>
-    <t>Double click on a part (or press a key) to show it in the collection</t>
   </si>
 </sst>
 </file>
@@ -605,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -639,7 +609,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -656,7 +626,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -668,12 +638,12 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -682,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -690,7 +660,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -699,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -707,10 +677,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -724,7 +694,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -733,15 +703,15 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -753,123 +723,38 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D6C5B-B36B-486E-9385-DEA23F9BCFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A25F6-D32D-4C3B-AFC8-ABAD78F80955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -58,27 +58,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>A background node that is (maybe parallax?) behind the map node</t>
-  </si>
-  <si>
     <t>More Parts</t>
   </si>
   <si>
-    <t>When a part is already on a connector, and another one comes along, it mounts</t>
-  </si>
-  <si>
-    <t>When a part goes over a connector when held, it cant connect to anything until re-selected</t>
-  </si>
-  <si>
-    <t>Parts Area</t>
-  </si>
-  <si>
-    <t>An area, at the bottom center of the screen</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -104,18 +86,6 @@
   </si>
   <si>
     <t>A bunch of levels (1-3 for each category)</t>
-  </si>
-  <si>
-    <t>2 Parts 1 Connector</t>
-  </si>
-  <si>
-    <t>Killer Connector</t>
-  </si>
-  <si>
-    <t>A small menu that pops up when the player wins/loses</t>
-  </si>
-  <si>
-    <t>End Level Menu</t>
   </si>
   <si>
     <t>WinArea Texture</t>
@@ -575,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E6" sqref="A6:E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -609,10 +579,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -621,12 +591,12 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -635,126 +605,41 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A25F6-D32D-4C3B-AFC8-ABAD78F80955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE149CE-AC8F-4E9E-AAA6-73C3343825CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>WinArea Texture</t>
+  </si>
+  <si>
+    <t>Parts Textures</t>
+  </si>
+  <si>
+    <t>Animated/Non animated part textures for each part type</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +646,23 @@
       </c>
       <c r="D5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE149CE-AC8F-4E9E-AAA6-73C3343825CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B494C2-366B-49DF-94AF-F662F43FD43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -58,43 +58,28 @@
     <t>Type</t>
   </si>
   <si>
-    <t>More Parts</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Phase 2</t>
-  </si>
-  <si>
-    <t>Phase 1</t>
-  </si>
-  <si>
     <t>Now</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>The tutorial levels</t>
-  </si>
-  <si>
     <t>More Levels</t>
   </si>
   <si>
-    <t>A variety of parts (1-3 for each type)</t>
-  </si>
-  <si>
     <t>A bunch of levels (1-3 for each category)</t>
   </si>
   <si>
-    <t>WinArea Texture</t>
-  </si>
-  <si>
-    <t>Parts Textures</t>
-  </si>
-  <si>
-    <t>Animated/Non animated part textures for each part type</t>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>Unlocked Parts</t>
+  </si>
+  <si>
+    <t>You unlock parts and they show up in the collection, they also get saved</t>
   </si>
 </sst>
 </file>
@@ -551,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -585,84 +570,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +768,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B494C2-366B-49DF-94AF-F662F43FD43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4CD69-210B-4E40-9760-CC97E291D078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
+    <workbookView xWindow="5265" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>You unlock parts and they show up in the collection, they also get saved</t>
+  </si>
+  <si>
+    <t>Fade-in End Level Menu</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -600,6 +603,20 @@
       </c>
       <c r="E3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Godot Projects\The Physics Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4CD69-210B-4E40-9760-CC97E291D078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05235DA-A9D4-416C-A793-D8132D54A168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{009E21AA-0000-49A1-9447-5B8702ECD64C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Now</t>
   </si>
   <si>
-    <t>More Levels</t>
-  </si>
-  <si>
-    <t>A bunch of levels (1-3 for each category)</t>
-  </si>
-  <si>
     <t>Soon</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>You unlock parts and they show up in the collection, they also get saved</t>
-  </si>
-  <si>
-    <t>Fade-in End Level Menu</t>
   </si>
 </sst>
 </file>
@@ -539,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27E89A-2538-4AED-9344-4644B9DE1B52}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,50 +564,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
